--- a/medicine/Mort/Cimetière_Saint-Vincent/Cimetière_Saint-Vincent.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Vincent/Cimetière_Saint-Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Vincent</t>
+          <t>Cimetière_Saint-Vincent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Vincent est un cimetière parisien situé 6 rue Lucien-Gaulard (18e arrondissement), dans le quartier de Montmartre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Vincent</t>
+          <t>Cimetière_Saint-Vincent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce site est desservi par la station de métro Lamarck - Caulaincourt.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Vincent</t>
+          <t>Cimetière_Saint-Vincent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier volet de la bande dessinée de François Bourgeon Le Sang des cerises se déroule en partie dans et autour du cimetière[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier volet de la bande dessinée de François Bourgeon Le Sang des cerises se déroule en partie dans et autour du cimetière.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Vincent</t>
+          <t>Cimetière_Saint-Vincent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ouvre le 5 janvier 1831.
 C'est un des trois cimetières de Montmartre, avec le cimetière du Calvaire, à côté de l'église Saint-Pierre de Montmartre, et le cimetière du Nord, couramment appelé « cimetière de Montmartre ».
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Vincent</t>
+          <t>Cimetière_Saint-Vincent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Vincent compte près de 900 tombes. Parmi elles, celles de[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Vincent compte près de 900 tombes. Parmi elles, celles de :
 Sommaire :
 Haut – A
 B
@@ -638,540 +658,1240 @@
 X
 Y
 Z
-A
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-B
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-C
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-D
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-F
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-G
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-H
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-I
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-K
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-L
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-M
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-N
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-P
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-Q
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-R
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-S
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-T
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-U
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-V
-Sommaire :
-Haut – A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-Y
-Sommaire :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
 Haut – A
 B
 C
